--- a/doc/OpticalStage Pin List and OpCode.xlsx
+++ b/doc/OpticalStage Pin List and OpCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyxu\Desktop\Santec Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyxu\Desktop\Santec Projects\Santec Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F697BA-F790-4E98-B6AC-A25E9B84A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A79DA7-D254-45EF-B4B2-DB660620C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="105" windowWidth="24720" windowHeight="14460" activeTab="1" xr2:uid="{AE62B341-8830-4ADE-809E-2DA282CF39FB}"/>
+    <workbookView xWindow="3300" yWindow="1095" windowWidth="24720" windowHeight="14460" activeTab="1" xr2:uid="{AE62B341-8830-4ADE-809E-2DA282CF39FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Nano Pin Assignment" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Motor</t>
   </si>
@@ -249,6 +249,20 @@
   </si>
   <si>
     <t>0x00 or 0x01</t>
+  </si>
+  <si>
+    <t>QueryBoardName</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>Error Code
+Board Name</t>
+  </si>
+  <si>
+    <t>0x00
+NanoOptical0/0/0/0/0/0/</t>
   </si>
 </sst>
 </file>
@@ -624,11 +638,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -638,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -650,20 +658,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,14 +679,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,9 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -731,12 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,17 +731,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,237 +1090,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="23"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1442,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F17FB02-594A-4D94-B045-BB08133FCC8C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,234 +1450,251 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="57" style="36" customWidth="1"/>
-    <col min="8" max="8" width="46" style="36" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57" style="28" customWidth="1"/>
+    <col min="8" max="8" width="46" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36" t="s">
-        <v>45</v>
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="H5" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C7" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G7" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D8" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D9" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G10" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D11" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E11" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G11" s="28" t="s">
         <v>32</v>
       </c>
     </row>
